--- a/src/Sofco.WebApi/wwwroot/excelTemplates/reintegro-template.xlsx
+++ b/src/Sofco.WebApi/wwwroot/excelTemplates/reintegro-template.xlsx
@@ -96,6 +96,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -261,7 +264,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -281,7 +284,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -301,16 +305,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -321,6 +325,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -612,17 +620,17 @@
     <col min="1" max="1" width="18.625" customWidth="1"/>
     <col min="2" max="2" width="31.625" customWidth="1"/>
     <col min="3" max="3" width="27.375" customWidth="1"/>
-    <col min="4" max="4" width="19.875" customWidth="1"/>
+    <col min="4" max="4" width="28.5" customWidth="1"/>
     <col min="5" max="5" width="28.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="26"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
@@ -668,17 +676,17 @@
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
     </row>
     <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
@@ -714,75 +722,107 @@
       <c r="A13" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="17" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="18"/>
     </row>
     <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
-    </row>
-    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="13" t="s">
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="33"/>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="7" t="s">
+      <c r="C17" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="19"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="18"/>
-    </row>
-    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.35">
-      <c r="A21" s="20" t="s">
+      <c r="E17" s="36"/>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+    </row>
+    <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="22"/>
-    </row>
-    <row r="22" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="6" t="s">
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23"/>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A22" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="7" t="s">
+      <c r="C22" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="19"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="18"/>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/src/Sofco.WebApi/wwwroot/excelTemplates/reintegro-template.xlsx
+++ b/src/Sofco.WebApi/wwwroot/excelTemplates/reintegro-template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>REINTEGRO #</t>
   </si>
@@ -90,6 +90,45 @@
   </si>
   <si>
     <t>Moneda:</t>
+  </si>
+  <si>
+    <t>Reintegros Relacionados</t>
+  </si>
+  <si>
+    <t>Adelantos Relacionados</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>Analitica</t>
+  </si>
+  <si>
+    <t>Total Items</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Ultimo Reintegro</t>
+  </si>
+  <si>
+    <t>Devolucion Efectivo</t>
+  </si>
+  <si>
+    <t>Monto Total</t>
+  </si>
+  <si>
+    <t>Total:</t>
+  </si>
+  <si>
+    <t>Total adelantos:</t>
+  </si>
+  <si>
+    <t>Reembolso usuario:</t>
+  </si>
+  <si>
+    <t>Reembolso empresa:</t>
   </si>
 </sst>
 </file>
@@ -99,7 +138,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -126,6 +165,13 @@
       <name val="Franklin Gothic Book"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Franklin Gothic Book"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -264,28 +310,62 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -304,16 +384,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -325,10 +405,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H25"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -622,215 +701,333 @@
     <col min="3" max="3" width="27.375" customWidth="1"/>
     <col min="4" max="4" width="28.5" customWidth="1"/>
     <col min="5" max="5" width="28.375" customWidth="1"/>
+    <col min="8" max="8" width="25.125" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="10" max="10" width="25" customWidth="1"/>
+    <col min="11" max="11" width="16.875" customWidth="1"/>
+    <col min="12" max="12" width="17.375" customWidth="1"/>
+    <col min="13" max="13" width="7.25" customWidth="1"/>
+    <col min="14" max="14" width="13.125" customWidth="1"/>
+    <col min="15" max="15" width="23.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:15" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="26"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="38"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="G1" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="32"/>
+      <c r="N1" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="O1" s="32"/>
+    </row>
+    <row r="2" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="G2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8"/>
-    </row>
-    <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="15"/>
+      <c r="I3" s="11"/>
+      <c r="O3" s="11"/>
+    </row>
+    <row r="4" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="15"/>
+      <c r="I4" s="11"/>
+      <c r="O4" s="11"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="15"/>
+      <c r="I5" s="11"/>
+      <c r="O5" s="11"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="15"/>
+      <c r="I6" s="11"/>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
+      <c r="D7" s="40"/>
+      <c r="I7" s="11"/>
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
-    </row>
-    <row r="9" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="42"/>
+      <c r="I8" s="11"/>
+      <c r="O8" s="11"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="I9" s="11"/>
+      <c r="O9" s="11"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="13" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="21"/>
+      <c r="I10" s="11"/>
+      <c r="O10" s="11"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
+      <c r="D11" s="23"/>
+      <c r="I11" s="11"/>
+      <c r="O11" s="11"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
         <v>9</v>
       </c>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="17" t="s">
+      <c r="D12" s="23"/>
+      <c r="I12" s="11"/>
+      <c r="O12" s="11"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="18"/>
-    </row>
-    <row r="16" spans="1:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="A16" s="31" t="s">
+      <c r="D13" s="17"/>
+      <c r="I13" s="11"/>
+      <c r="O13" s="11"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I14" s="11"/>
+      <c r="O14" s="11"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I15" s="11"/>
+      <c r="O15" s="11"/>
+    </row>
+    <row r="16" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A16" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="33"/>
-    </row>
-    <row r="17" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A17" s="37" t="s">
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="12"/>
+      <c r="I16" s="11"/>
+      <c r="O16" s="11"/>
+    </row>
+    <row r="17" spans="1:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-    </row>
-    <row r="21" spans="1:8" ht="21" x14ac:dyDescent="0.35">
-      <c r="A21" s="21" t="s">
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="I17" s="11"/>
+      <c r="O17" s="11"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="I18" s="11"/>
+      <c r="O18" s="11"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="I19" s="11"/>
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I20" s="11"/>
+      <c r="O20" s="11"/>
+    </row>
+    <row r="21" spans="1:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23"/>
-    </row>
-    <row r="22" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A22" s="34" t="s">
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
+      <c r="I21" s="11"/>
+      <c r="O21" s="11"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="35" t="s">
+      <c r="C22" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="35" t="s">
+      <c r="D22" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="28" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
+      <c r="I22" s="11"/>
+      <c r="O22" s="11"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="O23" s="11"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="O24" s="11"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="O25" s="11"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O26" s="11"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O27" s="11"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O28" s="11"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O29" s="11"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="O30" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="7">
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="N1:O1"/>
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A16:D16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
